--- a/scripts/output_responses.xlsx
+++ b/scripts/output_responses.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3317" uniqueCount="2572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3341" uniqueCount="2596">
   <si>
     <t>Timestamp</t>
   </si>
@@ -8694,10 +8694,33 @@
     <t>https://quan-zheng.github.io/publication/NeuralLightField3DPrinting-supp.pdf</t>
   </si>
   <si>
+    <t>@article{zheng2020neural,
+    ABSTRACT = {Modern 3D printers are capable of printing large-size light-field displays at high-resolutions. However, optimizing such displays in full 3D volume for a given light-field imagery is still a challenging task. Existing light field displays optimize over relatively small resolutions using},
+    AUTHOR = {Zheng, Quan and Babaei, Vahid and Wetzstein, Gordon and Seidel, Hans-Peter and Zwicker, Matthias and Singh, Gurprit},
+    JOURNAL = {ACM Transactions on Graphics (TOG)},
+    NUMBER = {6},
+    PAGES = {1--12},
+    PUB_YEAR = {2020},
+    PUBLISHER = {ACM New York, NY, USA},
+    TITLE = {Neural light field 3D printing},
+    VENUE = {ACM Transactions on …},
+    VOLUME = {39}
+}</t>
+  </si>
+  <si>
     <t>https://drive.google.com/uc?id=1EGwwQsAlw4C1IS6jgK_4P9uP0Rf4ICug&amp;export=download</t>
   </si>
   <si>
+    <t>Quan Zheng, Vahid Babaei, Gordon Wetzstein, Hans-Peter Seidel, Matthias Zwicker, Gurprit Singh</t>
+  </si>
+  <si>
+    <t>zheng2020neural</t>
+  </si>
+  <si>
     <t>00000193</t>
+  </si>
+  <si>
+    <t>Modern 3D printers are capable of printing large-size light-field displays at high-resolutions. However, optimizing such displays in full 3D volume for a given light-field imagery is still a challenging task. Existing light field displays optimize over relatively small resolutions using</t>
   </si>
   <si>
     <t>https://docs.google.com/forms/d/e/1FAIpQLSccBMzSvvL52m6b2LVmPsOkAyD-Vtj0dl0-K4E5D0S6b04vrA/viewform?edit2=2_ABaOnufwmW8XMLbhSzPw_3RyvwVEKgnUV6qSz3zhBiM5SIBd60ZkRzzT7J82ycJwGY5H4b0</t>
@@ -9627,10 +9650,32 @@
     <t>https://github.com/maziarraissi/PINNs</t>
   </si>
   <si>
+    <t>@article{raissi2019physics,
+    ABSTRACT = {We introduce physics-informed neural networks–neural networks that are trained to solve supervised learning tasks while respecting any given laws of physics described by general nonlinear partial differential equations. In this work, we present our developments in the context of solving two main classes of problems: data-driven solution and data-driven discovery of partial differential equations. Depending on the nature and arrangement of the available data, we devise two distinct types of algorithms, namely continuous time and},
+    AUTHOR = {Raissi, Maziar and Perdikaris, Paris and Karniadakis, George E},
+    JOURNAL = {Journal of Computational Physics},
+    PAGES = {686--707},
+    PUB_YEAR = {2019},
+    PUBLISHER = {Elsevier},
+    TITLE = {Physics-informed neural networks: A deep learning framework for solving forward and inverse problems involving nonlinear partial differential equations},
+    VENUE = {Journal of Computational Physics},
+    VOLUME = {378}
+}</t>
+  </si>
+  <si>
     <t>Beyond graphics, Fundamentals, Science and engineering, PDE</t>
   </si>
   <si>
+    <t>Maziar Raissi, Paris Perdikaris, George E Karniadakis</t>
+  </si>
+  <si>
+    <t>raissi2019physics</t>
+  </si>
+  <si>
     <t>00000213</t>
+  </si>
+  <si>
+    <t>We introduce physics-informed neural networks–neural networks that are trained to solve supervised learning tasks while respecting any given laws of physics described by general nonlinear partial differential equations. In this work, we present our developments in the context of solving two main classes of problems: data-driven solution and data-driven discovery of partial differential equations. Depending on the nature and arrangement of the available data, we devise two distinct types of algorithms, namely continuous time and</t>
   </si>
   <si>
     <t>https://docs.google.com/forms/d/e/1FAIpQLSccBMzSvvL52m6b2LVmPsOkAyD-Vtj0dl0-K4E5D0S6b04vrA/viewform?edit2=2_ABaOnudUCBrQjg0VOBD1ZBTShMPRRN57oj8R4w__1WJMHq-4ZKHI28uhdmcwpWD2HIAyDKA</t>
@@ -9789,10 +9834,28 @@
     <t>https://www.hci.otago.ac.nz/papers/MandlIEEEISMAR2021.pdf</t>
   </si>
   <si>
+    <t>@article{mandlneural,
+    ABSTRACT = {Coherent rendering is important for generating plausible Mixed Reality presentations of virtual objects within a user's real-world environment. Besides photo-realistic rendering and correct lighting, visual coherence requires simulating the imaging system that is used to capture the real environment. While existing approaches either focus on a specific camera or a specific component of the imaging system, we introduce Neural Cameras, the first approach that jointly simulates all major components of an arbitrary modern camera using},
+    AUTHOR = {Mandl, David and Mohr, Peter and Langlotz, Tobias and Ebner, Christoph and Mori, Shohei and Zollmann, Stefanie and Roth, Peter M and Kalkofen, Denis},
+    PUB_YEAR = {NA},
+    TITLE = {Neural Cameras: Learning Camera Characteristics for Coherent Mixed Reality Rendering},
+    VENUE = {NA}
+}</t>
+  </si>
+  <si>
     <t>Camera parameter estimation, Beyond graphics</t>
   </si>
   <si>
+    <t>David Mandl, Peter Mohr, Tobias Langlotz, Christoph Ebner, Shohei Mori, Stefanie Zollmann, Peter M Roth, Denis Kalkofen</t>
+  </si>
+  <si>
+    <t>mandlneural</t>
+  </si>
+  <si>
     <t>00000217</t>
+  </si>
+  <si>
+    <t>Coherent rendering is important for generating plausible Mixed Reality presentations of virtual objects within a user's real-world environment. Besides photo-realistic rendering and correct lighting, visual coherence requires simulating the imaging system that is used to capture the real environment. While existing approaches either focus on a specific camera or a specific component of the imaging system, we introduce Neural Cameras, the first approach that jointly simulates all major components of an arbitrary modern camera using</t>
   </si>
   <si>
     <t>https://docs.google.com/forms/d/e/1FAIpQLSccBMzSvvL52m6b2LVmPsOkAyD-Vtj0dl0-K4E5D0S6b04vrA/viewform?edit2=2_ABaOnueW5ORQ_TGinn-7URFGjneV88kI53FkZOl0MURf3K-oDErzpSLFdZmy9njV25Fr8OU</t>
@@ -9910,7 +9973,28 @@
     <t>https://library.seg.org/doi/pdf/10.1190/segam2021-3584127.1</t>
   </si>
   <si>
+    <t>@inproceedings{huang2021modified,
+    ABSTRACT = {Recently developed physics-informed neural network (PINN) for solving for the scattered wavefield in the Helmholtz equation showed large potential in seismic modeling because of its flexibility, low memory requirement, and no limitations on the shape of the solution space. However, the predicted solutions were somewhat smooth and the convergence of the training was slow. Thus, we propose a modified PINN using sinusoidal activation functions and positional encoding, aiming to accelerate the convergence and fit better. We transform},
+    AUTHOR = {Huang, Xinquan and Alkhalifah, Tariq and Song, Chao},
+    BOOKTITLE = {First International Meeting for Applied Geoscience \&amp; Energy},
+    ORGANIZATION = {Society of Exploration Geophysicists},
+    PAGES = {2480--2484},
+    PUB_YEAR = {2021},
+    TITLE = {A modified physics-informed neural network with positional encoding},
+    VENUE = {First International Meeting for …}
+}</t>
+  </si>
+  <si>
+    <t>Xinquan Huang, Tariq Alkhalifah, Chao Song</t>
+  </si>
+  <si>
+    <t>huang2021modified</t>
+  </si>
+  <si>
     <t>00000220</t>
+  </si>
+  <si>
+    <t>Recently developed physics-informed neural network (PINN) for solving for the scattered wavefield in the Helmholtz equation showed large potential in seismic modeling because of its flexibility, low memory requirement, and no limitations on the shape of the solution space. However, the predicted solutions were somewhat smooth and the convergence of the training was slow. Thus, we propose a modified PINN using sinusoidal activation functions and positional encoding, aiming to accelerate the convergence and fit better. We transform</t>
   </si>
   <si>
     <t>https://docs.google.com/forms/d/e/1FAIpQLSccBMzSvvL52m6b2LVmPsOkAyD-Vtj0dl0-K4E5D0S6b04vrA/viewform?edit2=2_ABaOnueXrGSBBSg2Q9j7bzwcVEIS60_gKQRrmo25MPkzwZ0uomWEl8hCfWwG2T9kD87LUoY</t>
@@ -9975,7 +10059,26 @@
     <t>https://vccimaging.org/Publications/Zang2021IntraTomo/Zang2021IntraTomo-supp.pdf</t>
   </si>
   <si>
+    <t>@article{zang2021intratomo,
+    ABSTRACT = {We propose IntraTomo, a powerful framework that combines the benefits of learning-based and model-based approaches for solving highly ill-posed inverse problems, in the Computed Tomography (CT) context. IntraTomo is composed of two core modules: a novel sinogram prediction module and a geometry refinement module, which are applied iteratively. In the first module, the unknown density field is represented as a continuous and differentiable function, parameterized by a deep neural network. This network is learned, in},
+    AUTHOR = {Zang, Guangming and Idoughi, Ramzi and Li, Rui and Wonka, Peter and Heidrich, Wolfgang},
+    PUB_YEAR = {2021},
+    PUBLISHER = {IEEE},
+    TITLE = {IntraTomo: Self-supervised Learning-based Tomography via Sinogram Synthesis and Prediction},
+    VENUE = {NA}
+}</t>
+  </si>
+  <si>
+    <t>Guangming Zang, Ramzi Idoughi, Rui Li, Peter Wonka, Wolfgang Heidrich</t>
+  </si>
+  <si>
+    <t>zang2021intratomo</t>
+  </si>
+  <si>
     <t>00000222</t>
+  </si>
+  <si>
+    <t>We propose IntraTomo, a powerful framework that combines the benefits of learning-based and model-based approaches for solving highly ill-posed inverse problems, in the Computed Tomography (CT) context. IntraTomo is composed of two core modules: a novel sinogram prediction module and a geometry refinement module, which are applied iteratively. In the first module, the unknown density field is represented as a continuous and differentiable function, parameterized by a deep neural network. This network is learned, in</t>
   </si>
   <si>
     <t>https://docs.google.com/forms/d/e/1FAIpQLSccBMzSvvL52m6b2LVmPsOkAyD-Vtj0dl0-K4E5D0S6b04vrA/viewform?edit2=2_ABaOnueuWp61dpYUOM_4iY7WqfLVfTzYYnFAzYwD6bW45HQd5vaYxlIdiL6p7W84DP3DfPE</t>
@@ -10100,10 +10203,28 @@
     <t>https://github.com/Nianyi-Li/unsupervised-NDIR</t>
   </si>
   <si>
+    <t>@article{liunsupervised,
+    ABSTRACT = {Many computer vision problems face difficulties when imaging through turbulent refractive media (eg, air and water) due to the refraction and scattering of light. These effects cause geometric distortion that requires either handcrafted physical priors or supervised learning methods to remove. In this paper, we present a novel unsupervised network to recover the latent distortion-free image. The key idea is to model non-rigid distortions as deformable grids. Our network consists of a grid deformer that estimates the distortion field and an image},
+    AUTHOR = {Li, Nianyi and Thapa, Simron and Whyte, Cameron and Reed, Albert and Jayasuriya, Suren and Ye, Jinwei},
+    PUB_YEAR = {NA},
+    TITLE = {Unsupervised Non-Rigid Image Distortion Removal via Grid Deformation},
+    VENUE = {NA}
+}</t>
+  </si>
+  <si>
     <t>Image, Beyond graphics, Alternative imaging</t>
   </si>
   <si>
+    <t>Nianyi Li, Simron Thapa, Cameron Whyte, Albert Reed, Suren Jayasuriya, Jinwei Ye</t>
+  </si>
+  <si>
+    <t>liunsupervised</t>
+  </si>
+  <si>
     <t>00000225</t>
+  </si>
+  <si>
+    <t>Many computer vision problems face difficulties when imaging through turbulent refractive media (eg, air and water) due to the refraction and scattering of light. These effects cause geometric distortion that requires either handcrafted physical priors or supervised learning methods to remove. In this paper, we present a novel unsupervised network to recover the latent distortion-free image. The key idea is to model non-rigid distortions as deformable grids. Our network consists of a grid deformer that estimates the distortion field and an image</t>
   </si>
   <si>
     <t>https://docs.google.com/forms/d/e/1FAIpQLSccBMzSvvL52m6b2LVmPsOkAyD-Vtj0dl0-K4E5D0S6b04vrA/viewform?edit2=2_ABaOnufGIbNbqU1lxFQfaYoGO_kQ37_CX7swaM5cE-bkzULODCdFrRi24X_dgfaOGH5E-tw</t>
@@ -20817,6 +20938,9 @@
       <c r="I195" s="1" t="s">
         <v>2183</v>
       </c>
+      <c r="L195" t="s">
+        <v>2184</v>
+      </c>
       <c r="M195" t="s">
         <v>1798</v>
       </c>
@@ -20824,16 +20948,25 @@
         <v>330</v>
       </c>
       <c r="Y195" s="1" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="AA195" t="s">
         <v>66</v>
       </c>
+      <c r="AB195" t="s">
+        <v>2186</v>
+      </c>
+      <c r="AC195" t="s">
+        <v>2187</v>
+      </c>
       <c r="AD195" t="s">
-        <v>2185</v>
+        <v>2188</v>
+      </c>
+      <c r="AE195" t="s">
+        <v>2189</v>
       </c>
       <c r="AK195" s="1" t="s">
-        <v>2186</v>
+        <v>2190</v>
       </c>
     </row>
     <row r="196" spans="1:37">
@@ -20841,19 +20974,19 @@
         <v>44456.48220347222</v>
       </c>
       <c r="B196" t="s">
-        <v>2187</v>
+        <v>2191</v>
       </c>
       <c r="C196" t="s">
-        <v>2188</v>
+        <v>2192</v>
       </c>
       <c r="D196" t="s">
-        <v>2189</v>
+        <v>2193</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>2190</v>
+        <v>2194</v>
       </c>
       <c r="L196" t="s">
-        <v>2191</v>
+        <v>2195</v>
       </c>
       <c r="M196" t="s">
         <v>270</v>
@@ -20874,19 +21007,19 @@
         <v>66</v>
       </c>
       <c r="AB196" t="s">
-        <v>2192</v>
+        <v>2196</v>
       </c>
       <c r="AC196" t="s">
-        <v>2193</v>
+        <v>2197</v>
       </c>
       <c r="AD196" t="s">
-        <v>2194</v>
+        <v>2198</v>
       </c>
       <c r="AE196" t="s">
-        <v>2195</v>
+        <v>2199</v>
       </c>
       <c r="AK196" s="1" t="s">
-        <v>2196</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="197" spans="1:37">
@@ -20894,31 +21027,31 @@
         <v>44456.48508864583</v>
       </c>
       <c r="B197" t="s">
-        <v>2197</v>
+        <v>2201</v>
       </c>
       <c r="C197" t="s">
-        <v>2198</v>
+        <v>2202</v>
       </c>
       <c r="D197" t="s">
-        <v>2199</v>
+        <v>2203</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>2200</v>
+        <v>2204</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>2201</v>
+        <v>2205</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>2202</v>
+        <v>2206</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>2203</v>
+        <v>2207</v>
       </c>
       <c r="L197" t="s">
-        <v>2204</v>
+        <v>2208</v>
       </c>
       <c r="M197" t="s">
-        <v>2205</v>
+        <v>2209</v>
       </c>
       <c r="P197" t="s">
         <v>128</v>
@@ -20933,22 +21066,22 @@
         <v>609</v>
       </c>
       <c r="AB197" t="s">
-        <v>2206</v>
+        <v>2210</v>
       </c>
       <c r="AC197" t="s">
-        <v>2207</v>
+        <v>2211</v>
       </c>
       <c r="AD197" t="s">
-        <v>2208</v>
+        <v>2212</v>
       </c>
       <c r="AE197" t="s">
-        <v>2209</v>
+        <v>2213</v>
       </c>
       <c r="AH197" t="s">
         <v>144</v>
       </c>
       <c r="AK197" s="1" t="s">
-        <v>2210</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="198" spans="1:37">
@@ -20956,25 +21089,25 @@
         <v>44456.4881740625</v>
       </c>
       <c r="B198" t="s">
-        <v>2211</v>
+        <v>2215</v>
       </c>
       <c r="C198" t="s">
-        <v>2212</v>
+        <v>2216</v>
       </c>
       <c r="D198" t="s">
-        <v>2213</v>
+        <v>2217</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>2214</v>
+        <v>2218</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>2215</v>
+        <v>2219</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>2216</v>
+        <v>2220</v>
       </c>
       <c r="L198" t="s">
-        <v>2217</v>
+        <v>2221</v>
       </c>
       <c r="M198" t="s">
         <v>1831</v>
@@ -20986,7 +21119,7 @@
         <v>330</v>
       </c>
       <c r="P198" t="s">
-        <v>2218</v>
+        <v>2222</v>
       </c>
       <c r="Q198" t="s">
         <v>102</v>
@@ -21001,19 +21134,19 @@
         <v>66</v>
       </c>
       <c r="AB198" t="s">
-        <v>2219</v>
+        <v>2223</v>
       </c>
       <c r="AC198" t="s">
-        <v>2220</v>
+        <v>2224</v>
       </c>
       <c r="AD198" t="s">
-        <v>2221</v>
+        <v>2225</v>
       </c>
       <c r="AE198" t="s">
-        <v>2222</v>
+        <v>2226</v>
       </c>
       <c r="AK198" s="1" t="s">
-        <v>2223</v>
+        <v>2227</v>
       </c>
     </row>
     <row r="199" spans="1:37">
@@ -21021,25 +21154,25 @@
         <v>44456.4908803125</v>
       </c>
       <c r="B199" t="s">
-        <v>2224</v>
+        <v>2228</v>
       </c>
       <c r="C199" t="s">
-        <v>2225</v>
+        <v>2229</v>
       </c>
       <c r="D199" t="s">
-        <v>2226</v>
+        <v>2230</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>2227</v>
+        <v>2231</v>
       </c>
       <c r="L199" t="s">
-        <v>2228</v>
+        <v>2232</v>
       </c>
       <c r="M199" t="s">
         <v>1831</v>
       </c>
       <c r="N199" t="s">
-        <v>2229</v>
+        <v>2233</v>
       </c>
       <c r="P199" t="s">
         <v>101</v>
@@ -21057,22 +21190,22 @@
         <v>66</v>
       </c>
       <c r="AB199" t="s">
-        <v>2230</v>
+        <v>2234</v>
       </c>
       <c r="AC199" t="s">
-        <v>2231</v>
+        <v>2235</v>
       </c>
       <c r="AD199" t="s">
-        <v>2232</v>
+        <v>2236</v>
       </c>
       <c r="AE199" t="s">
-        <v>2233</v>
+        <v>2237</v>
       </c>
       <c r="AG199" t="s">
         <v>144</v>
       </c>
       <c r="AK199" s="1" t="s">
-        <v>2234</v>
+        <v>2238</v>
       </c>
     </row>
     <row r="200" spans="1:37">
@@ -21080,34 +21213,34 @@
         <v>44456.49319666667</v>
       </c>
       <c r="B200" t="s">
-        <v>2235</v>
+        <v>2239</v>
       </c>
       <c r="C200" t="s">
-        <v>2236</v>
+        <v>2240</v>
       </c>
       <c r="D200" t="s">
-        <v>2237</v>
+        <v>2241</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>2238</v>
+        <v>2242</v>
       </c>
       <c r="F200" s="1" t="s">
-        <v>2239</v>
+        <v>2243</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>2240</v>
+        <v>2244</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>2241</v>
+        <v>2245</v>
       </c>
       <c r="L200" t="s">
-        <v>2242</v>
+        <v>2246</v>
       </c>
       <c r="M200" t="s">
         <v>1831</v>
       </c>
       <c r="N200" t="s">
-        <v>2243</v>
+        <v>2247</v>
       </c>
       <c r="P200" t="s">
         <v>101</v>
@@ -21125,19 +21258,19 @@
         <v>66</v>
       </c>
       <c r="AB200" t="s">
-        <v>2244</v>
+        <v>2248</v>
       </c>
       <c r="AC200" t="s">
-        <v>2245</v>
+        <v>2249</v>
       </c>
       <c r="AD200" t="s">
-        <v>2246</v>
+        <v>2250</v>
       </c>
       <c r="AE200" t="s">
-        <v>2247</v>
+        <v>2251</v>
       </c>
       <c r="AK200" s="1" t="s">
-        <v>2248</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="201" spans="1:37">
@@ -21145,19 +21278,19 @@
         <v>44456.49713350694</v>
       </c>
       <c r="B201" t="s">
-        <v>2249</v>
+        <v>2253</v>
       </c>
       <c r="C201" t="s">
-        <v>2250</v>
+        <v>2254</v>
       </c>
       <c r="D201" t="s">
-        <v>2251</v>
+        <v>2255</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>2252</v>
+        <v>2256</v>
       </c>
       <c r="L201" t="s">
-        <v>2253</v>
+        <v>2257</v>
       </c>
       <c r="M201" t="s">
         <v>270</v>
@@ -21181,19 +21314,19 @@
         <v>66</v>
       </c>
       <c r="AB201" t="s">
-        <v>2254</v>
+        <v>2258</v>
       </c>
       <c r="AC201" t="s">
-        <v>2255</v>
+        <v>2259</v>
       </c>
       <c r="AD201" t="s">
-        <v>2256</v>
+        <v>2260</v>
       </c>
       <c r="AE201" t="s">
-        <v>2257</v>
+        <v>2261</v>
       </c>
       <c r="AK201" s="1" t="s">
-        <v>2258</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="202" spans="1:37">
@@ -21201,31 +21334,31 @@
         <v>44456.49907192129</v>
       </c>
       <c r="B202" t="s">
-        <v>2259</v>
+        <v>2263</v>
       </c>
       <c r="D202" t="s">
-        <v>2260</v>
+        <v>2264</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>2261</v>
+        <v>2265</v>
       </c>
       <c r="F202" s="1" t="s">
-        <v>2262</v>
+        <v>2266</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>2263</v>
+        <v>2267</v>
       </c>
       <c r="H202" s="1" t="s">
-        <v>2264</v>
+        <v>2268</v>
       </c>
       <c r="L202" t="s">
-        <v>2265</v>
+        <v>2269</v>
       </c>
       <c r="M202" t="s">
         <v>270</v>
       </c>
       <c r="N202" t="s">
-        <v>2266</v>
+        <v>2270</v>
       </c>
       <c r="P202" t="s">
         <v>101</v>
@@ -21243,19 +21376,19 @@
         <v>66</v>
       </c>
       <c r="AB202" t="s">
-        <v>2267</v>
+        <v>2271</v>
       </c>
       <c r="AC202" t="s">
-        <v>2268</v>
+        <v>2272</v>
       </c>
       <c r="AD202" t="s">
-        <v>2269</v>
+        <v>2273</v>
       </c>
       <c r="AE202" t="s">
-        <v>2270</v>
+        <v>2274</v>
       </c>
       <c r="AK202" s="1" t="s">
-        <v>2271</v>
+        <v>2275</v>
       </c>
     </row>
     <row r="203" spans="1:37">
@@ -21263,34 +21396,34 @@
         <v>44456.54953576389</v>
       </c>
       <c r="B203" t="s">
-        <v>2272</v>
+        <v>2276</v>
       </c>
       <c r="C203" t="s">
-        <v>2273</v>
+        <v>2277</v>
       </c>
       <c r="D203" t="s">
-        <v>2274</v>
+        <v>2278</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>2275</v>
+        <v>2279</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>2276</v>
+        <v>2280</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>2277</v>
+        <v>2281</v>
       </c>
       <c r="H203" s="1" t="s">
-        <v>2278</v>
+        <v>2282</v>
       </c>
       <c r="L203" t="s">
-        <v>2279</v>
+        <v>2283</v>
       </c>
       <c r="M203" t="s">
         <v>270</v>
       </c>
       <c r="N203" t="s">
-        <v>2280</v>
+        <v>2284</v>
       </c>
       <c r="P203" t="s">
         <v>101</v>
@@ -21305,22 +21438,22 @@
         <v>66</v>
       </c>
       <c r="AB203" t="s">
-        <v>2281</v>
+        <v>2285</v>
       </c>
       <c r="AC203" t="s">
-        <v>2282</v>
+        <v>2286</v>
       </c>
       <c r="AD203" t="s">
-        <v>2283</v>
+        <v>2287</v>
       </c>
       <c r="AE203" t="s">
-        <v>2284</v>
+        <v>2288</v>
       </c>
       <c r="AG203" t="s">
         <v>50</v>
       </c>
       <c r="AK203" s="1" t="s">
-        <v>2285</v>
+        <v>2289</v>
       </c>
     </row>
     <row r="204" spans="1:37">
@@ -21328,25 +21461,25 @@
         <v>44456.55534028935</v>
       </c>
       <c r="B204" t="s">
-        <v>2286</v>
+        <v>2290</v>
       </c>
       <c r="C204" t="s">
-        <v>2287</v>
+        <v>2291</v>
       </c>
       <c r="D204" t="s">
-        <v>2288</v>
+        <v>2292</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>2289</v>
+        <v>2293</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>2290</v>
+        <v>2294</v>
       </c>
       <c r="H204" s="1" t="s">
-        <v>2291</v>
+        <v>2295</v>
       </c>
       <c r="L204" t="s">
-        <v>2292</v>
+        <v>2296</v>
       </c>
       <c r="M204" t="s">
         <v>270</v>
@@ -21370,19 +21503,19 @@
         <v>66</v>
       </c>
       <c r="AB204" t="s">
-        <v>2281</v>
+        <v>2285</v>
       </c>
       <c r="AC204" t="s">
-        <v>2293</v>
+        <v>2297</v>
       </c>
       <c r="AD204" t="s">
-        <v>2294</v>
+        <v>2298</v>
       </c>
       <c r="AE204" t="s">
-        <v>2295</v>
+        <v>2299</v>
       </c>
       <c r="AK204" s="1" t="s">
-        <v>2296</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="205" spans="1:37">
@@ -21390,34 +21523,34 @@
         <v>44456.57734141203</v>
       </c>
       <c r="B205" t="s">
-        <v>2297</v>
+        <v>2301</v>
       </c>
       <c r="C205" t="s">
-        <v>2298</v>
+        <v>2302</v>
       </c>
       <c r="D205" t="s">
-        <v>2299</v>
+        <v>2303</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>2300</v>
+        <v>2304</v>
       </c>
       <c r="F205" s="1" t="s">
-        <v>2301</v>
+        <v>2305</v>
       </c>
       <c r="H205" s="1" t="s">
-        <v>2302</v>
+        <v>2306</v>
       </c>
       <c r="J205" s="1" t="s">
-        <v>2303</v>
+        <v>2307</v>
       </c>
       <c r="L205" t="s">
-        <v>2304</v>
+        <v>2308</v>
       </c>
       <c r="M205" t="s">
         <v>270</v>
       </c>
       <c r="N205" t="s">
-        <v>2305</v>
+        <v>2309</v>
       </c>
       <c r="Q205" t="s">
         <v>102</v>
@@ -21429,22 +21562,22 @@
         <v>144</v>
       </c>
       <c r="AB205" t="s">
-        <v>2306</v>
+        <v>2310</v>
       </c>
       <c r="AC205" t="s">
-        <v>2307</v>
+        <v>2311</v>
       </c>
       <c r="AD205" t="s">
-        <v>2308</v>
+        <v>2312</v>
       </c>
       <c r="AE205" t="s">
-        <v>2309</v>
+        <v>2313</v>
       </c>
       <c r="AG205" t="s">
         <v>50</v>
       </c>
       <c r="AK205" s="1" t="s">
-        <v>2310</v>
+        <v>2314</v>
       </c>
     </row>
     <row r="206" spans="1:37">
@@ -21452,31 +21585,31 @@
         <v>44456.58637900463</v>
       </c>
       <c r="B206" t="s">
-        <v>2311</v>
+        <v>2315</v>
       </c>
       <c r="C206" t="s">
-        <v>2312</v>
+        <v>2316</v>
       </c>
       <c r="D206" t="s">
-        <v>2313</v>
+        <v>2317</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>2314</v>
+        <v>2318</v>
       </c>
       <c r="F206" s="1" t="s">
-        <v>2315</v>
+        <v>2319</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>2316</v>
+        <v>2320</v>
       </c>
       <c r="L206" t="s">
-        <v>2317</v>
+        <v>2321</v>
       </c>
       <c r="M206" t="s">
         <v>270</v>
       </c>
       <c r="N206" t="s">
-        <v>2318</v>
+        <v>2322</v>
       </c>
       <c r="P206" t="s">
         <v>101</v>
@@ -21491,22 +21624,22 @@
         <v>50</v>
       </c>
       <c r="AB206" t="s">
-        <v>2319</v>
+        <v>2323</v>
       </c>
       <c r="AC206" t="s">
-        <v>2320</v>
+        <v>2324</v>
       </c>
       <c r="AD206" t="s">
-        <v>2321</v>
+        <v>2325</v>
       </c>
       <c r="AE206" t="s">
-        <v>2322</v>
+        <v>2326</v>
       </c>
       <c r="AG206" t="s">
         <v>50</v>
       </c>
       <c r="AK206" s="1" t="s">
-        <v>2323</v>
+        <v>2327</v>
       </c>
     </row>
     <row r="207" spans="1:37">
@@ -21514,28 +21647,28 @@
         <v>44456.58566581018</v>
       </c>
       <c r="B207" t="s">
-        <v>2324</v>
+        <v>2328</v>
       </c>
       <c r="C207" t="s">
-        <v>2325</v>
+        <v>2329</v>
       </c>
       <c r="D207" t="s">
-        <v>2326</v>
+        <v>2330</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>2327</v>
+        <v>2331</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>2328</v>
+        <v>2332</v>
       </c>
       <c r="L207" t="s">
-        <v>2329</v>
+        <v>2333</v>
       </c>
       <c r="M207" t="s">
         <v>270</v>
       </c>
       <c r="N207" t="s">
-        <v>2330</v>
+        <v>2334</v>
       </c>
       <c r="P207" t="s">
         <v>101</v>
@@ -21550,22 +21683,22 @@
         <v>50</v>
       </c>
       <c r="AB207" t="s">
-        <v>2331</v>
+        <v>2335</v>
       </c>
       <c r="AC207" t="s">
-        <v>2332</v>
+        <v>2336</v>
       </c>
       <c r="AD207" t="s">
-        <v>2333</v>
+        <v>2337</v>
       </c>
       <c r="AE207" t="s">
-        <v>2334</v>
+        <v>2338</v>
       </c>
       <c r="AG207" t="s">
         <v>50</v>
       </c>
       <c r="AK207" s="1" t="s">
-        <v>2335</v>
+        <v>2339</v>
       </c>
     </row>
     <row r="208" spans="1:37">
@@ -21573,28 +21706,28 @@
         <v>44456.5914287037</v>
       </c>
       <c r="B208" t="s">
-        <v>2336</v>
+        <v>2340</v>
       </c>
       <c r="C208" t="s">
-        <v>2337</v>
+        <v>2341</v>
       </c>
       <c r="D208" t="s">
-        <v>2338</v>
+        <v>2342</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>2339</v>
+        <v>2343</v>
       </c>
       <c r="F208" s="1" t="s">
-        <v>2340</v>
+        <v>2344</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>2341</v>
+        <v>2345</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>2341</v>
+        <v>2345</v>
       </c>
       <c r="L208" t="s">
-        <v>2342</v>
+        <v>2346</v>
       </c>
       <c r="M208" t="s">
         <v>270</v>
@@ -21612,19 +21745,19 @@
         <v>50</v>
       </c>
       <c r="AB208" t="s">
-        <v>2343</v>
+        <v>2347</v>
       </c>
       <c r="AC208" t="s">
-        <v>2344</v>
+        <v>2348</v>
       </c>
       <c r="AD208" t="s">
-        <v>2345</v>
+        <v>2349</v>
       </c>
       <c r="AE208" t="s">
-        <v>2346</v>
+        <v>2350</v>
       </c>
       <c r="AK208" s="1" t="s">
-        <v>2347</v>
+        <v>2351</v>
       </c>
     </row>
     <row r="209" spans="1:37">
@@ -21632,25 +21765,25 @@
         <v>44456.59752914352</v>
       </c>
       <c r="B209" t="s">
-        <v>2348</v>
+        <v>2352</v>
       </c>
       <c r="C209" t="s">
-        <v>2349</v>
+        <v>2353</v>
       </c>
       <c r="D209" t="s">
-        <v>2350</v>
+        <v>2354</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>2351</v>
+        <v>2355</v>
       </c>
       <c r="L209" t="s">
-        <v>2352</v>
+        <v>2356</v>
       </c>
       <c r="M209" t="s">
-        <v>2353</v>
+        <v>2357</v>
       </c>
       <c r="N209" t="s">
-        <v>2354</v>
+        <v>2358</v>
       </c>
       <c r="Q209" t="s">
         <v>102</v>
@@ -21662,19 +21795,19 @@
         <v>144</v>
       </c>
       <c r="AB209" t="s">
-        <v>2355</v>
+        <v>2359</v>
       </c>
       <c r="AC209" t="s">
-        <v>2356</v>
+        <v>2360</v>
       </c>
       <c r="AD209" t="s">
-        <v>2357</v>
+        <v>2361</v>
       </c>
       <c r="AE209" t="s">
-        <v>2358</v>
+        <v>2362</v>
       </c>
       <c r="AK209" s="1" t="s">
-        <v>2359</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="210" spans="1:37">
@@ -21682,31 +21815,31 @@
         <v>44456.60208756944</v>
       </c>
       <c r="B210" t="s">
-        <v>2360</v>
+        <v>2364</v>
       </c>
       <c r="C210" t="s">
-        <v>2361</v>
+        <v>2365</v>
       </c>
       <c r="D210" t="s">
-        <v>2362</v>
+        <v>2366</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>2363</v>
+        <v>2367</v>
       </c>
       <c r="F210" s="1" t="s">
-        <v>2364</v>
+        <v>2368</v>
       </c>
       <c r="H210" s="1" t="s">
-        <v>2365</v>
+        <v>2369</v>
       </c>
       <c r="L210" t="s">
-        <v>2366</v>
+        <v>2370</v>
       </c>
       <c r="M210" t="s">
         <v>270</v>
       </c>
       <c r="N210" t="s">
-        <v>2367</v>
+        <v>2371</v>
       </c>
       <c r="O210" t="s">
         <v>38</v>
@@ -21727,19 +21860,19 @@
         <v>66</v>
       </c>
       <c r="AB210" t="s">
-        <v>2368</v>
+        <v>2372</v>
       </c>
       <c r="AC210" t="s">
-        <v>2369</v>
+        <v>2373</v>
       </c>
       <c r="AD210" t="s">
-        <v>2370</v>
+        <v>2374</v>
       </c>
       <c r="AE210" t="s">
-        <v>2371</v>
+        <v>2375</v>
       </c>
       <c r="AK210" s="1" t="s">
-        <v>2372</v>
+        <v>2376</v>
       </c>
     </row>
     <row r="211" spans="1:37">
@@ -21747,19 +21880,19 @@
         <v>44456.74253084491</v>
       </c>
       <c r="B211" t="s">
-        <v>2373</v>
+        <v>2377</v>
       </c>
       <c r="C211" t="s">
         <v>1611</v>
       </c>
       <c r="D211" t="s">
-        <v>2374</v>
+        <v>2378</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>2375</v>
+        <v>2379</v>
       </c>
       <c r="L211" t="s">
-        <v>2376</v>
+        <v>2380</v>
       </c>
       <c r="M211" t="s">
         <v>47</v>
@@ -21780,19 +21913,19 @@
         <v>66</v>
       </c>
       <c r="AB211" t="s">
-        <v>2377</v>
+        <v>2381</v>
       </c>
       <c r="AC211" t="s">
-        <v>2378</v>
+        <v>2382</v>
       </c>
       <c r="AD211" t="s">
-        <v>2379</v>
+        <v>2383</v>
       </c>
       <c r="AE211" t="s">
-        <v>2380</v>
+        <v>2384</v>
       </c>
       <c r="AK211" s="1" t="s">
-        <v>2381</v>
+        <v>2385</v>
       </c>
     </row>
     <row r="212" spans="1:37">
@@ -21800,28 +21933,28 @@
         <v>44456.75742189815</v>
       </c>
       <c r="B212" t="s">
-        <v>2382</v>
+        <v>2386</v>
       </c>
       <c r="C212" t="s">
-        <v>2383</v>
+        <v>2387</v>
       </c>
       <c r="D212" t="s">
-        <v>2384</v>
+        <v>2388</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>2385</v>
+        <v>2389</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>2386</v>
+        <v>2390</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>2387</v>
+        <v>2391</v>
       </c>
       <c r="I212" s="1" t="s">
-        <v>2388</v>
+        <v>2392</v>
       </c>
       <c r="L212" t="s">
-        <v>2389</v>
+        <v>2393</v>
       </c>
       <c r="M212" t="s">
         <v>1632</v>
@@ -21836,19 +21969,19 @@
         <v>66</v>
       </c>
       <c r="AB212" t="s">
-        <v>2390</v>
+        <v>2394</v>
       </c>
       <c r="AC212" t="s">
-        <v>2391</v>
+        <v>2395</v>
       </c>
       <c r="AD212" t="s">
-        <v>2392</v>
+        <v>2396</v>
       </c>
       <c r="AE212" t="s">
-        <v>2393</v>
+        <v>2397</v>
       </c>
       <c r="AK212" s="1" t="s">
-        <v>2394</v>
+        <v>2398</v>
       </c>
     </row>
     <row r="213" spans="1:37">
@@ -21856,25 +21989,25 @@
         <v>44456.81649231481</v>
       </c>
       <c r="B213" t="s">
-        <v>2395</v>
+        <v>2399</v>
       </c>
       <c r="C213" t="s">
-        <v>2396</v>
+        <v>2400</v>
       </c>
       <c r="D213" t="s">
-        <v>2397</v>
+        <v>2401</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>2398</v>
+        <v>2402</v>
       </c>
       <c r="L213" t="s">
-        <v>2399</v>
+        <v>2403</v>
       </c>
       <c r="M213" t="s">
-        <v>2400</v>
+        <v>2404</v>
       </c>
       <c r="N213" t="s">
-        <v>2401</v>
+        <v>2405</v>
       </c>
       <c r="Q213" t="s">
         <v>102</v>
@@ -21886,22 +22019,22 @@
         <v>144</v>
       </c>
       <c r="AB213" t="s">
-        <v>2402</v>
+        <v>2406</v>
       </c>
       <c r="AC213" t="s">
-        <v>2403</v>
+        <v>2407</v>
       </c>
       <c r="AD213" t="s">
-        <v>2404</v>
+        <v>2408</v>
       </c>
       <c r="AE213" t="s">
-        <v>2405</v>
+        <v>2409</v>
       </c>
       <c r="AG213" t="s">
         <v>50</v>
       </c>
       <c r="AK213" s="1" t="s">
-        <v>2406</v>
+        <v>2410</v>
       </c>
     </row>
     <row r="214" spans="1:37">
@@ -21909,34 +22042,34 @@
         <v>44456.89672934027</v>
       </c>
       <c r="B214" t="s">
-        <v>2407</v>
+        <v>2411</v>
       </c>
       <c r="D214" t="s">
-        <v>2408</v>
+        <v>2412</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>2409</v>
+        <v>2413</v>
       </c>
       <c r="F214" s="1" t="s">
-        <v>2410</v>
+        <v>2414</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>2411</v>
+        <v>2415</v>
       </c>
       <c r="H214" s="1" t="s">
-        <v>2412</v>
+        <v>2416</v>
       </c>
       <c r="I214" s="1" t="s">
-        <v>2413</v>
+        <v>2417</v>
       </c>
       <c r="L214" t="s">
-        <v>2414</v>
+        <v>2418</v>
       </c>
       <c r="M214" t="s">
         <v>396</v>
       </c>
       <c r="N214" t="s">
-        <v>2415</v>
+        <v>2419</v>
       </c>
       <c r="O214" t="s">
         <v>330</v>
@@ -21954,19 +22087,19 @@
         <v>66</v>
       </c>
       <c r="AB214" t="s">
-        <v>2416</v>
+        <v>2420</v>
       </c>
       <c r="AC214" t="s">
-        <v>2417</v>
+        <v>2421</v>
       </c>
       <c r="AD214" t="s">
-        <v>2418</v>
+        <v>2422</v>
       </c>
       <c r="AE214" t="s">
-        <v>2419</v>
+        <v>2423</v>
       </c>
       <c r="AK214" s="1" t="s">
-        <v>2420</v>
+        <v>2424</v>
       </c>
     </row>
     <row r="215" spans="1:37">
@@ -21974,28 +22107,40 @@
         <v>44456.94645265046</v>
       </c>
       <c r="B215" t="s">
-        <v>2421</v>
+        <v>2425</v>
       </c>
       <c r="D215">
         <v>43264</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>2422</v>
+        <v>2426</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>2423</v>
+        <v>2427</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>2424</v>
+        <v>2428</v>
+      </c>
+      <c r="L215" t="s">
+        <v>2429</v>
       </c>
       <c r="M215" t="s">
-        <v>2425</v>
+        <v>2430</v>
+      </c>
+      <c r="AB215" t="s">
+        <v>2431</v>
+      </c>
+      <c r="AC215" t="s">
+        <v>2432</v>
       </c>
       <c r="AD215" t="s">
-        <v>2426</v>
+        <v>2433</v>
+      </c>
+      <c r="AE215" t="s">
+        <v>2434</v>
       </c>
       <c r="AK215" s="1" t="s">
-        <v>2427</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="216" spans="1:37">
@@ -22003,28 +22148,28 @@
         <v>44456.95675945602</v>
       </c>
       <c r="B216" t="s">
-        <v>2428</v>
+        <v>2436</v>
       </c>
       <c r="C216" t="s">
-        <v>2429</v>
+        <v>2437</v>
       </c>
       <c r="D216" t="s">
-        <v>2430</v>
+        <v>2438</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>2431</v>
+        <v>2439</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>2432</v>
+        <v>2440</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>2433</v>
+        <v>2441</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>2434</v>
+        <v>2442</v>
       </c>
       <c r="L216" t="s">
-        <v>2435</v>
+        <v>2443</v>
       </c>
       <c r="M216" t="s">
         <v>1740</v>
@@ -22051,19 +22196,19 @@
         <v>66</v>
       </c>
       <c r="AB216" t="s">
-        <v>2436</v>
+        <v>2444</v>
       </c>
       <c r="AC216" t="s">
-        <v>2437</v>
+        <v>2445</v>
       </c>
       <c r="AD216" t="s">
-        <v>2438</v>
+        <v>2446</v>
       </c>
       <c r="AE216" t="s">
-        <v>2439</v>
+        <v>2447</v>
       </c>
       <c r="AK216" s="1" t="s">
-        <v>2440</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="217" spans="1:37">
@@ -22071,25 +22216,25 @@
         <v>44457.35923194444</v>
       </c>
       <c r="B217" t="s">
-        <v>2441</v>
+        <v>2449</v>
       </c>
       <c r="C217" t="s">
-        <v>2442</v>
+        <v>2450</v>
       </c>
       <c r="D217" t="s">
-        <v>2443</v>
+        <v>2451</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>2444</v>
+        <v>2452</v>
       </c>
       <c r="L217" t="s">
-        <v>2445</v>
+        <v>2453</v>
       </c>
       <c r="M217" t="s">
         <v>63</v>
       </c>
       <c r="N217" t="s">
-        <v>2446</v>
+        <v>2454</v>
       </c>
       <c r="X217" t="s">
         <v>1241</v>
@@ -22098,22 +22243,22 @@
         <v>50</v>
       </c>
       <c r="AB217" t="s">
-        <v>2447</v>
+        <v>2455</v>
       </c>
       <c r="AC217" t="s">
-        <v>2448</v>
+        <v>2456</v>
       </c>
       <c r="AD217" t="s">
-        <v>2449</v>
+        <v>2457</v>
       </c>
       <c r="AE217" t="s">
-        <v>2450</v>
+        <v>2458</v>
       </c>
       <c r="AG217" t="s">
         <v>50</v>
       </c>
       <c r="AK217" s="1" t="s">
-        <v>2451</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="218" spans="1:37">
@@ -22121,31 +22266,31 @@
         <v>44457.36286019676</v>
       </c>
       <c r="B218" t="s">
-        <v>2452</v>
+        <v>2460</v>
       </c>
       <c r="C218" t="s">
-        <v>2453</v>
+        <v>2461</v>
       </c>
       <c r="D218" t="s">
-        <v>2454</v>
+        <v>2462</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>2455</v>
+        <v>2463</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>2456</v>
+        <v>2464</v>
       </c>
       <c r="G218" t="s">
         <v>777</v>
       </c>
       <c r="J218" s="1" t="s">
-        <v>2457</v>
+        <v>2465</v>
       </c>
       <c r="L218" t="s">
-        <v>2458</v>
+        <v>2466</v>
       </c>
       <c r="M218" t="s">
-        <v>2459</v>
+        <v>2467</v>
       </c>
       <c r="N218" t="s">
         <v>1308</v>
@@ -22160,22 +22305,22 @@
         <v>1136</v>
       </c>
       <c r="AB218" t="s">
-        <v>2460</v>
+        <v>2468</v>
       </c>
       <c r="AC218" t="s">
-        <v>2461</v>
+        <v>2469</v>
       </c>
       <c r="AD218" t="s">
-        <v>2462</v>
+        <v>2470</v>
       </c>
       <c r="AE218" t="s">
-        <v>2463</v>
+        <v>2471</v>
       </c>
       <c r="AH218" t="s">
         <v>50</v>
       </c>
       <c r="AK218" s="1" t="s">
-        <v>2464</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="219" spans="1:37">
@@ -22183,25 +22328,37 @@
         <v>44457.36598674768</v>
       </c>
       <c r="B219" t="s">
-        <v>2465</v>
+        <v>2473</v>
       </c>
       <c r="C219" t="s">
-        <v>2466</v>
+        <v>2474</v>
       </c>
       <c r="D219">
         <v>44457</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>2467</v>
+        <v>2475</v>
+      </c>
+      <c r="L219" t="s">
+        <v>2476</v>
       </c>
       <c r="M219" t="s">
-        <v>2468</v>
+        <v>2477</v>
+      </c>
+      <c r="AB219" t="s">
+        <v>2478</v>
+      </c>
+      <c r="AC219" t="s">
+        <v>2479</v>
       </c>
       <c r="AD219" t="s">
-        <v>2469</v>
+        <v>2480</v>
+      </c>
+      <c r="AE219" t="s">
+        <v>2481</v>
       </c>
       <c r="AK219" s="1" t="s">
-        <v>2470</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="220" spans="1:37">
@@ -22209,31 +22366,31 @@
         <v>44457.37170215278</v>
       </c>
       <c r="B220" t="s">
-        <v>2471</v>
+        <v>2483</v>
       </c>
       <c r="C220" t="s">
-        <v>2472</v>
+        <v>2484</v>
       </c>
       <c r="D220" t="s">
-        <v>2473</v>
+        <v>2485</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>2474</v>
+        <v>2486</v>
       </c>
       <c r="F220" s="1" t="s">
-        <v>2475</v>
+        <v>2487</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>2476</v>
+        <v>2488</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>2477</v>
+        <v>2489</v>
       </c>
       <c r="L220" t="s">
-        <v>2478</v>
+        <v>2490</v>
       </c>
       <c r="N220" t="s">
-        <v>2479</v>
+        <v>2491</v>
       </c>
       <c r="O220" t="s">
         <v>330</v>
@@ -22242,10 +22399,10 @@
         <v>841</v>
       </c>
       <c r="X220" t="s">
-        <v>2480</v>
+        <v>2492</v>
       </c>
       <c r="Y220" s="1" t="s">
-        <v>2481</v>
+        <v>2493</v>
       </c>
       <c r="Z220" t="s">
         <v>144</v>
@@ -22254,19 +22411,19 @@
         <v>66</v>
       </c>
       <c r="AB220" t="s">
-        <v>2482</v>
+        <v>2494</v>
       </c>
       <c r="AC220" t="s">
-        <v>2483</v>
+        <v>2495</v>
       </c>
       <c r="AD220" t="s">
-        <v>2484</v>
+        <v>2496</v>
       </c>
       <c r="AE220" t="s">
-        <v>2485</v>
+        <v>2497</v>
       </c>
       <c r="AK220" s="1" t="s">
-        <v>2486</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="221" spans="1:37">
@@ -22274,43 +22431,43 @@
         <v>44457.40227905093</v>
       </c>
       <c r="B221" t="s">
-        <v>2487</v>
+        <v>2499</v>
       </c>
       <c r="C221" t="s">
-        <v>2488</v>
+        <v>2500</v>
       </c>
       <c r="D221" t="s">
-        <v>2489</v>
+        <v>2501</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>2490</v>
+        <v>2502</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>2491</v>
+        <v>2503</v>
       </c>
       <c r="L221" t="s">
-        <v>2492</v>
+        <v>2504</v>
       </c>
       <c r="M221" t="s">
-        <v>2493</v>
+        <v>2505</v>
       </c>
       <c r="AA221" t="s">
         <v>66</v>
       </c>
       <c r="AB221" t="s">
-        <v>2494</v>
+        <v>2506</v>
       </c>
       <c r="AC221" t="s">
-        <v>2495</v>
+        <v>2507</v>
       </c>
       <c r="AD221" t="s">
-        <v>2496</v>
+        <v>2508</v>
       </c>
       <c r="AE221" t="s">
-        <v>2497</v>
+        <v>2509</v>
       </c>
       <c r="AK221" s="1" t="s">
-        <v>2498</v>
+        <v>2510</v>
       </c>
     </row>
     <row r="222" spans="1:37">
@@ -22318,16 +22475,19 @@
         <v>44457.40473822917</v>
       </c>
       <c r="B222" t="s">
-        <v>2499</v>
+        <v>2511</v>
       </c>
       <c r="D222">
         <v>44440</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>2500</v>
+        <v>2512</v>
+      </c>
+      <c r="L222" t="s">
+        <v>2513</v>
       </c>
       <c r="M222" t="s">
-        <v>2425</v>
+        <v>2430</v>
       </c>
       <c r="O222" t="s">
         <v>330</v>
@@ -22335,11 +22495,20 @@
       <c r="AA222" t="s">
         <v>66</v>
       </c>
+      <c r="AB222" t="s">
+        <v>2514</v>
+      </c>
+      <c r="AC222" t="s">
+        <v>2515</v>
+      </c>
       <c r="AD222" t="s">
-        <v>2501</v>
+        <v>2516</v>
+      </c>
+      <c r="AE222" t="s">
+        <v>2517</v>
       </c>
       <c r="AK222" s="1" t="s">
-        <v>2502</v>
+        <v>2518</v>
       </c>
     </row>
     <row r="223" spans="1:37">
@@ -22347,19 +22516,19 @@
         <v>44457.41686101852</v>
       </c>
       <c r="B223" t="s">
-        <v>2503</v>
+        <v>2519</v>
       </c>
       <c r="D223" t="s">
-        <v>2504</v>
+        <v>2520</v>
       </c>
       <c r="E223" s="1" t="s">
-        <v>2505</v>
+        <v>2521</v>
       </c>
       <c r="L223" t="s">
-        <v>2506</v>
+        <v>2522</v>
       </c>
       <c r="M223" t="s">
-        <v>2507</v>
+        <v>2523</v>
       </c>
       <c r="N223" t="s">
         <v>1539</v>
@@ -22368,19 +22537,19 @@
         <v>48</v>
       </c>
       <c r="AB223" t="s">
-        <v>2508</v>
+        <v>2524</v>
       </c>
       <c r="AC223" t="s">
-        <v>2509</v>
+        <v>2525</v>
       </c>
       <c r="AD223" t="s">
-        <v>2510</v>
+        <v>2526</v>
       </c>
       <c r="AE223" t="s">
-        <v>2511</v>
+        <v>2527</v>
       </c>
       <c r="AK223" s="1" t="s">
-        <v>2512</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="224" spans="1:37">
@@ -22388,25 +22557,28 @@
         <v>44457.41898962963</v>
       </c>
       <c r="B224" t="s">
-        <v>2513</v>
+        <v>2529</v>
       </c>
       <c r="C224" t="s">
-        <v>2514</v>
+        <v>2530</v>
       </c>
       <c r="D224">
         <v>44441</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>2515</v>
+        <v>2531</v>
       </c>
       <c r="F224" s="1" t="s">
-        <v>2516</v>
+        <v>2532</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>2517</v>
+        <v>2533</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>2518</v>
+        <v>2534</v>
+      </c>
+      <c r="L224" t="s">
+        <v>2535</v>
       </c>
       <c r="M224" t="s">
         <v>1798</v>
@@ -22418,16 +22590,25 @@
         <v>1241</v>
       </c>
       <c r="Y224" s="1" t="s">
-        <v>2517</v>
+        <v>2533</v>
       </c>
       <c r="AA224" t="s">
         <v>66</v>
       </c>
+      <c r="AB224" t="s">
+        <v>2536</v>
+      </c>
+      <c r="AC224" t="s">
+        <v>2537</v>
+      </c>
       <c r="AD224" t="s">
-        <v>2519</v>
+        <v>2538</v>
+      </c>
+      <c r="AE224" t="s">
+        <v>2539</v>
       </c>
       <c r="AK224" s="1" t="s">
-        <v>2520</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="225" spans="1:37">
@@ -22435,31 +22616,31 @@
         <v>44457.42609324074</v>
       </c>
       <c r="B225" t="s">
-        <v>2521</v>
+        <v>2541</v>
       </c>
       <c r="C225" t="s">
-        <v>2522</v>
+        <v>2542</v>
       </c>
       <c r="D225" t="s">
-        <v>2504</v>
+        <v>2520</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>2523</v>
+        <v>2543</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>2524</v>
+        <v>2544</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>2525</v>
+        <v>2545</v>
       </c>
       <c r="L225" t="s">
-        <v>2526</v>
+        <v>2546</v>
       </c>
       <c r="M225" t="s">
         <v>518</v>
       </c>
       <c r="N225" t="s">
-        <v>2527</v>
+        <v>2547</v>
       </c>
       <c r="P225" t="s">
         <v>841</v>
@@ -22468,7 +22649,7 @@
         <v>700</v>
       </c>
       <c r="Y225" s="1" t="s">
-        <v>2528</v>
+        <v>2548</v>
       </c>
       <c r="Z225" t="s">
         <v>144</v>
@@ -22477,19 +22658,19 @@
         <v>66</v>
       </c>
       <c r="AB225" t="s">
-        <v>2529</v>
+        <v>2549</v>
       </c>
       <c r="AC225" t="s">
-        <v>2530</v>
+        <v>2550</v>
       </c>
       <c r="AD225" t="s">
-        <v>2531</v>
+        <v>2551</v>
       </c>
       <c r="AE225" t="s">
-        <v>2532</v>
+        <v>2552</v>
       </c>
       <c r="AK225" s="1" t="s">
-        <v>2533</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="226" spans="1:37">
@@ -22497,43 +22678,43 @@
         <v>44457.43236399306</v>
       </c>
       <c r="B226" t="s">
-        <v>2534</v>
+        <v>2554</v>
       </c>
       <c r="C226" t="s">
-        <v>2535</v>
+        <v>2555</v>
       </c>
       <c r="D226" t="s">
-        <v>2536</v>
+        <v>2556</v>
       </c>
       <c r="E226" s="1" t="s">
-        <v>2537</v>
+        <v>2557</v>
       </c>
       <c r="F226" s="1" t="s">
-        <v>2538</v>
+        <v>2558</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>2539</v>
+        <v>2559</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>2540</v>
+        <v>2560</v>
       </c>
       <c r="I226" s="1" t="s">
-        <v>2541</v>
+        <v>2561</v>
       </c>
       <c r="L226" t="s">
-        <v>2542</v>
+        <v>2562</v>
       </c>
       <c r="M226" t="s">
         <v>518</v>
       </c>
       <c r="N226" t="s">
-        <v>2543</v>
+        <v>2563</v>
       </c>
       <c r="O226" t="s">
         <v>38</v>
       </c>
       <c r="P226" t="s">
-        <v>2544</v>
+        <v>2564</v>
       </c>
       <c r="Q226" t="s">
         <v>102</v>
@@ -22548,22 +22729,22 @@
         <v>66</v>
       </c>
       <c r="AB226" t="s">
-        <v>2545</v>
+        <v>2565</v>
       </c>
       <c r="AC226" t="s">
-        <v>2546</v>
+        <v>2566</v>
       </c>
       <c r="AD226" t="s">
-        <v>2547</v>
+        <v>2567</v>
       </c>
       <c r="AE226" t="s">
-        <v>2548</v>
+        <v>2568</v>
       </c>
       <c r="AH226" t="s">
         <v>144</v>
       </c>
       <c r="AK226" s="1" t="s">
-        <v>2549</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="227" spans="1:37">
@@ -22571,19 +22752,22 @@
         <v>44457.43808615741</v>
       </c>
       <c r="B227" t="s">
-        <v>2550</v>
+        <v>2570</v>
       </c>
       <c r="D227">
         <v>44424</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>2551</v>
+        <v>2571</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>2552</v>
+        <v>2572</v>
+      </c>
+      <c r="L227" t="s">
+        <v>2573</v>
       </c>
       <c r="M227" t="s">
-        <v>2553</v>
+        <v>2574</v>
       </c>
       <c r="X227" t="s">
         <v>1241</v>
@@ -22591,14 +22775,23 @@
       <c r="AA227" t="s">
         <v>609</v>
       </c>
+      <c r="AB227" t="s">
+        <v>2575</v>
+      </c>
+      <c r="AC227" t="s">
+        <v>2576</v>
+      </c>
       <c r="AD227" t="s">
-        <v>2554</v>
+        <v>2577</v>
+      </c>
+      <c r="AE227" t="s">
+        <v>2578</v>
       </c>
       <c r="AH227" t="s">
         <v>50</v>
       </c>
       <c r="AK227" s="1" t="s">
-        <v>2555</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="228" spans="1:37">
@@ -22606,52 +22799,52 @@
         <v>44457.45966443287</v>
       </c>
       <c r="B228" t="s">
-        <v>2556</v>
+        <v>2580</v>
       </c>
       <c r="C228" t="s">
-        <v>2557</v>
+        <v>2581</v>
       </c>
       <c r="D228" t="s">
-        <v>2558</v>
+        <v>2582</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>2559</v>
+        <v>2583</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>2560</v>
+        <v>2584</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>2561</v>
+        <v>2585</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>2562</v>
+        <v>2586</v>
       </c>
       <c r="L228" t="s">
-        <v>2563</v>
+        <v>2587</v>
       </c>
       <c r="M228" t="s">
-        <v>2564</v>
+        <v>2588</v>
       </c>
       <c r="X228" t="s">
-        <v>2565</v>
+        <v>2589</v>
       </c>
       <c r="Y228" s="1" t="s">
-        <v>2566</v>
+        <v>2590</v>
       </c>
       <c r="AB228" t="s">
-        <v>2567</v>
+        <v>2591</v>
       </c>
       <c r="AC228" t="s">
-        <v>2568</v>
+        <v>2592</v>
       </c>
       <c r="AD228" t="s">
-        <v>2569</v>
+        <v>2593</v>
       </c>
       <c r="AE228" t="s">
-        <v>2570</v>
+        <v>2594</v>
       </c>
       <c r="AK228" s="1" t="s">
-        <v>2571</v>
+        <v>2595</v>
       </c>
     </row>
   </sheetData>
